--- a/public/uploads/formats/services_charge.xlsx
+++ b/public/uploads/formats/services_charge.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Propietario\Code\backend-regalalo\public\uploads\formats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Propietario\Documents\Proyectos\backend-regalalo\public\uploads\formats\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,8 +23,186 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Isaac Abensur</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>regalalo.pe:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+El nombre del servicio es obligatorio. Sino se consigna no se registrará en la plataforma.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Regalalo.pe:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+El código SKU es único. Si existe entre los productos que haya creado hasta el momento, los datos se actualizarán, en su defecto, se creará un  nuevo registro.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>regalalo.pe:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+El descuento se consigna del 0 al 99 en la parte entera y como máximo dos digitos en la parte decimal.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Regalalo.pe:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+El precio solo acepta números sin símbolos de moneda, sin separación de miles o millares y como máximo dos digitos en la parte decimal.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>regalalo.pe:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+La descripción acepta todo tipo de texto.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>regalalo.pe:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+El rango de edades a los cuales está dirigido el producto se consigna como sigue:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>edad_mínima,edad_maxima</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Donde:
+edad_mínima: Solo puede ser un valor entero y debe ser menor a la edad máxima
+edad_maxima: Solo puede ser un valor entero y debe ser mayor a la edad mínima</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Codigo SKU</t>
   </si>
@@ -38,29 +216,43 @@
     <t>Edades</t>
   </si>
   <si>
-    <t>Envío</t>
-  </si>
-  <si>
     <t>Precio</t>
   </si>
   <si>
     <t>Nombre del servicio</t>
-  </si>
-  <si>
-    <t>Presentación del servicio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -364,36 +556,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" customWidth="1"/>
-    <col min="7" max="7" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.375" customWidth="1"/>
-    <col min="10" max="10" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="8" max="8" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" customWidth="1"/>
+    <col min="13" max="13" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -402,22 +592,17 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
         <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>